--- a/simulated_data/10nodes_30len_trial7.xlsx
+++ b/simulated_data/10nodes_30len_trial7.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.036178293999191</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.036043400745292</v>
+        <v>22.315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22.355</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.015</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20.645</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.725</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.04</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.336183036263556</v>
+        <v>22.315</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.335930402863873</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.465</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.355</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.555</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.13</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6365123816398509</v>
+        <v>24.06</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.636341353559518</v>
+        <v>2.075</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.715</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.455</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.35</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.869510843091702</v>
+        <v>18.275</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.869049473254988</v>
+        <v>10.465</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.715</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.765</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.375</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.42015403531392</v>
+        <v>2.13</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.420065362663609</v>
+        <v>19.355</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.165</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.325</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.721311471309849</v>
+        <v>22.355</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.721209681796716</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16.135</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.675</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.374180235887764</v>
+        <v>12.015</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.374271048085821</v>
+        <v>15.82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.455</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.005000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20.28</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.355473922920618</v>
+        <v>20.645</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.356015306848913</v>
+        <v>11.365</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.295</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23.255</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4820959834359367</v>
+        <v>20.725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4822597665058284</v>
+        <v>22.555</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.765</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.135</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.44</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>25.04</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>12.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.325</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.675</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.255</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64</v>
+        <v>21.89</v>
       </c>
       <c r="D2" t="n">
-        <v>26.04</v>
+        <v>24.03</v>
       </c>
       <c r="E2" t="n">
-        <v>17.62</v>
+        <v>15.88</v>
       </c>
       <c r="F2" t="n">
-        <v>4.37</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>21.69</v>
+        <v>21.21</v>
       </c>
       <c r="H2" t="n">
-        <v>13.18</v>
+        <v>15.31</v>
       </c>
       <c r="I2" t="n">
-        <v>15.6</v>
+        <v>13.75</v>
       </c>
       <c r="J2" t="n">
-        <v>22.05</v>
+        <v>16.38</v>
       </c>
       <c r="K2" t="n">
-        <v>23.59</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.64</v>
+        <v>21.89</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.57</v>
+        <v>2.16</v>
       </c>
       <c r="E3" t="n">
-        <v>8.01</v>
+        <v>6.04</v>
       </c>
       <c r="F3" t="n">
-        <v>22.13</v>
+        <v>22.58</v>
       </c>
       <c r="G3" t="n">
-        <v>3.91</v>
+        <v>4.49</v>
       </c>
       <c r="H3" t="n">
-        <v>12.17</v>
+        <v>12.98</v>
       </c>
       <c r="I3" t="n">
-        <v>11.68</v>
+        <v>15.47</v>
       </c>
       <c r="J3" t="n">
-        <v>20.52</v>
+        <v>17.15</v>
       </c>
       <c r="K3" t="n">
-        <v>13.6</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.04</v>
+        <v>24.03</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57</v>
+        <v>2.16</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.68</v>
+        <v>8.19</v>
       </c>
       <c r="F4" t="n">
-        <v>24.65</v>
+        <v>24.74</v>
       </c>
       <c r="G4" t="n">
-        <v>5.12</v>
+        <v>5.67</v>
       </c>
       <c r="H4" t="n">
-        <v>14.74</v>
+        <v>14.79</v>
       </c>
       <c r="I4" t="n">
-        <v>14.19</v>
+        <v>17.36</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07</v>
+        <v>18.47</v>
       </c>
       <c r="K4" t="n">
-        <v>13.63</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.62</v>
+        <v>15.88</v>
       </c>
       <c r="C5" t="n">
-        <v>8.01</v>
+        <v>6.04</v>
       </c>
       <c r="D5" t="n">
-        <v>9.68</v>
+        <v>8.19</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17.36</v>
+        <v>16.55</v>
       </c>
       <c r="G5" t="n">
-        <v>4.61</v>
+        <v>6.25</v>
       </c>
       <c r="H5" t="n">
-        <v>10.22</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>11.61</v>
+        <v>11.02</v>
       </c>
       <c r="J5" t="n">
-        <v>13.69</v>
+        <v>14.25</v>
       </c>
       <c r="K5" t="n">
-        <v>8.890000000000001</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.37</v>
+        <v>2.48</v>
       </c>
       <c r="C6" t="n">
-        <v>22.13</v>
+        <v>22.58</v>
       </c>
       <c r="D6" t="n">
-        <v>24.65</v>
+        <v>24.74</v>
       </c>
       <c r="E6" t="n">
-        <v>17.36</v>
+        <v>16.55</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.85</v>
+        <v>21.41</v>
       </c>
       <c r="H6" t="n">
-        <v>10.51</v>
+        <v>14.54</v>
       </c>
       <c r="I6" t="n">
-        <v>12.52</v>
+        <v>12.64</v>
       </c>
       <c r="J6" t="n">
-        <v>24.4</v>
+        <v>18.63</v>
       </c>
       <c r="K6" t="n">
-        <v>24.59</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.69</v>
+        <v>21.21</v>
       </c>
       <c r="C7" t="n">
-        <v>3.91</v>
+        <v>4.49</v>
       </c>
       <c r="D7" t="n">
-        <v>5.12</v>
+        <v>5.67</v>
       </c>
       <c r="E7" t="n">
-        <v>4.61</v>
+        <v>6.25</v>
       </c>
       <c r="F7" t="n">
-        <v>20.85</v>
+        <v>21.41</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>11.98</v>
+        <v>9.49</v>
       </c>
       <c r="I7" t="n">
-        <v>12.38</v>
+        <v>12.18</v>
       </c>
       <c r="J7" t="n">
-        <v>16.62</v>
+        <v>19.96</v>
       </c>
       <c r="K7" t="n">
-        <v>9.93</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="8">
@@ -929,22 +1200,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.18</v>
+        <v>15.31</v>
       </c>
       <c r="C8" t="n">
-        <v>12.17</v>
+        <v>12.98</v>
       </c>
       <c r="D8" t="n">
-        <v>14.74</v>
+        <v>14.79</v>
       </c>
       <c r="E8" t="n">
-        <v>10.22</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>10.51</v>
+        <v>14.54</v>
       </c>
       <c r="G8" t="n">
-        <v>11.98</v>
+        <v>9.49</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -953,10 +1224,10 @@
         <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>22.25</v>
+        <v>21.7</v>
       </c>
       <c r="K8" t="n">
-        <v>19.04</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="9">
@@ -964,22 +1235,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6</v>
+        <v>13.75</v>
       </c>
       <c r="C9" t="n">
-        <v>11.68</v>
+        <v>15.47</v>
       </c>
       <c r="D9" t="n">
-        <v>14.19</v>
+        <v>17.36</v>
       </c>
       <c r="E9" t="n">
-        <v>11.61</v>
+        <v>11.02</v>
       </c>
       <c r="F9" t="n">
-        <v>12.52</v>
+        <v>12.64</v>
       </c>
       <c r="G9" t="n">
-        <v>12.38</v>
+        <v>12.18</v>
       </c>
       <c r="H9" t="n">
         <v>2.75</v>
@@ -988,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>24.39</v>
+        <v>22.34</v>
       </c>
       <c r="K9" t="n">
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.05</v>
+        <v>16.38</v>
       </c>
       <c r="C10" t="n">
-        <v>20.52</v>
+        <v>17.15</v>
       </c>
       <c r="D10" t="n">
-        <v>21.07</v>
+        <v>18.47</v>
       </c>
       <c r="E10" t="n">
-        <v>13.69</v>
+        <v>14.25</v>
       </c>
       <c r="F10" t="n">
-        <v>24.4</v>
+        <v>18.63</v>
       </c>
       <c r="G10" t="n">
-        <v>16.62</v>
+        <v>19.96</v>
       </c>
       <c r="H10" t="n">
-        <v>22.25</v>
+        <v>21.7</v>
       </c>
       <c r="I10" t="n">
-        <v>24.39</v>
+        <v>22.34</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.59</v>
+        <v>14.93</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6</v>
+        <v>10.59</v>
       </c>
       <c r="D11" t="n">
-        <v>13.63</v>
+        <v>12.22</v>
       </c>
       <c r="E11" t="n">
-        <v>8.890000000000001</v>
+        <v>7.29</v>
       </c>
       <c r="F11" t="n">
-        <v>24.59</v>
+        <v>16.59</v>
       </c>
       <c r="G11" t="n">
-        <v>9.93</v>
+        <v>13.01</v>
       </c>
       <c r="H11" t="n">
-        <v>19.04</v>
+        <v>15.38</v>
       </c>
       <c r="I11" t="n">
-        <v>20.5</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
-        <v>7.98</v>
+        <v>6.99</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.73771858537607</v>
+        <v>13.4994261954428</v>
       </c>
       <c r="C2" t="n">
-        <v>6.335015833791895</v>
+        <v>-4.026755247865393</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.037995459364387</v>
+        <v>0.8287395459648375</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01236366358157119</v>
+        <v>13.8219670500503</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-11.07927819560839</v>
+        <v>-0.1810700559200098</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.565773033867884</v>
+        <v>15.73142556604786</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.451351635498514</v>
+        <v>3.942059126551535</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.591781005534848</v>
+        <v>8.651514986688172</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.87493605483665</v>
+        <v>11.8603497275611</v>
       </c>
       <c r="C6" t="n">
-        <v>9.634638797167746</v>
+        <v>-5.881366851331751</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.057279156501819</v>
+        <v>-2.063226811234462</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.538104627455385</v>
+        <v>10.38678045550156</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6063795923088853</v>
+        <v>-0.9709424940802808</v>
       </c>
       <c r="C8" t="n">
-        <v>7.417906233050012</v>
+        <v>0.9646545623787879</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.631552790912035</v>
+        <v>-0.04027792007447954</v>
       </c>
       <c r="C9" t="n">
-        <v>9.021242591510031</v>
+        <v>-1.623583907600402</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.763705238995182</v>
+        <v>17.85253716116246</v>
       </c>
       <c r="C10" t="n">
-        <v>-14.2225449185621</v>
+        <v>11.76067488031472</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.725282233631625</v>
+        <v>10.94730299861367</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.4782362065179</v>
+        <v>10.68428650644234</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.07</v>
+        <v>5.23</v>
       </c>
       <c r="D2" t="n">
-        <v>23.88</v>
+        <v>6.22</v>
       </c>
       <c r="E2" t="n">
-        <v>15.92</v>
+        <v>4.48</v>
       </c>
       <c r="F2" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>15.68</v>
+        <v>4.69</v>
       </c>
       <c r="H2" t="n">
-        <v>11.47</v>
+        <v>0.48</v>
       </c>
       <c r="I2" t="n">
-        <v>14.28</v>
+        <v>0.45</v>
       </c>
       <c r="J2" t="n">
-        <v>30.9</v>
+        <v>7.8</v>
       </c>
       <c r="K2" t="n">
-        <v>26.22</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.07</v>
+        <v>5.23</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.04</v>
+        <v>0.99</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>20.37</v>
+        <v>7.19</v>
       </c>
       <c r="G3" t="n">
-        <v>11.94</v>
+        <v>0.54</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>5.71</v>
       </c>
       <c r="I3" t="n">
-        <v>7.49</v>
+        <v>5.68</v>
       </c>
       <c r="J3" t="n">
-        <v>13.34</v>
+        <v>2.57</v>
       </c>
       <c r="K3" t="n">
-        <v>18.49</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.88</v>
+        <v>6.22</v>
       </c>
       <c r="C4" t="n">
-        <v>3.04</v>
+        <v>0.99</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.81</v>
+        <v>1.74</v>
       </c>
       <c r="F4" t="n">
-        <v>22.94</v>
+        <v>8.18</v>
       </c>
       <c r="G4" t="n">
-        <v>14.75</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>12.17</v>
+        <v>6.7</v>
       </c>
       <c r="I4" t="n">
-        <v>9.83</v>
+        <v>6.67</v>
       </c>
       <c r="J4" t="n">
-        <v>12.64</v>
+        <v>1.58</v>
       </c>
       <c r="K4" t="n">
-        <v>19.9</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.92</v>
+        <v>4.48</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="n">
-        <v>13.81</v>
+        <v>1.74</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.62</v>
+        <v>6.44</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="H5" t="n">
-        <v>9.359999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>4.93</v>
       </c>
       <c r="J5" t="n">
-        <v>15.68</v>
+        <v>3.33</v>
       </c>
       <c r="K5" t="n">
-        <v>11.24</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="C6" t="n">
-        <v>20.37</v>
+        <v>7.19</v>
       </c>
       <c r="D6" t="n">
-        <v>22.94</v>
+        <v>8.18</v>
       </c>
       <c r="E6" t="n">
-        <v>16.62</v>
+        <v>6.44</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.62</v>
+        <v>6.65</v>
       </c>
       <c r="H6" t="n">
-        <v>10.77</v>
+        <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>31.14</v>
+        <v>9.76</v>
       </c>
       <c r="K6" t="n">
-        <v>27.39</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.68</v>
+        <v>4.69</v>
       </c>
       <c r="C7" t="n">
-        <v>11.94</v>
+        <v>0.54</v>
       </c>
       <c r="D7" t="n">
-        <v>14.75</v>
+        <v>1.53</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="F7" t="n">
-        <v>16.62</v>
+        <v>6.65</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.07</v>
+        <v>5.17</v>
       </c>
       <c r="I7" t="n">
-        <v>11.94</v>
+        <v>5.14</v>
       </c>
       <c r="J7" t="n">
-        <v>16.15</v>
+        <v>3.12</v>
       </c>
       <c r="K7" t="n">
-        <v>10.77</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.47</v>
+        <v>0.48</v>
       </c>
       <c r="C8" t="n">
-        <v>9.6</v>
+        <v>5.71</v>
       </c>
       <c r="D8" t="n">
-        <v>12.17</v>
+        <v>6.7</v>
       </c>
       <c r="E8" t="n">
-        <v>9.359999999999999</v>
+        <v>4.96</v>
       </c>
       <c r="F8" t="n">
-        <v>10.77</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
-        <v>10.07</v>
+        <v>5.17</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.04</v>
+        <v>0.03</v>
       </c>
       <c r="J8" t="n">
-        <v>20.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>20.37</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.28</v>
+        <v>0.45</v>
       </c>
       <c r="C9" t="n">
-        <v>7.49</v>
+        <v>5.68</v>
       </c>
       <c r="D9" t="n">
-        <v>9.83</v>
+        <v>6.67</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>4.93</v>
       </c>
       <c r="F9" t="n">
-        <v>13.34</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>11.94</v>
+        <v>5.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.04</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.13</v>
+        <v>8.26</v>
       </c>
       <c r="K9" t="n">
-        <v>21.54</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.9</v>
+        <v>7.8</v>
       </c>
       <c r="C10" t="n">
-        <v>13.34</v>
+        <v>2.57</v>
       </c>
       <c r="D10" t="n">
-        <v>12.64</v>
+        <v>1.58</v>
       </c>
       <c r="E10" t="n">
-        <v>15.68</v>
+        <v>3.33</v>
       </c>
       <c r="F10" t="n">
-        <v>31.14</v>
+        <v>9.76</v>
       </c>
       <c r="G10" t="n">
-        <v>16.15</v>
+        <v>3.12</v>
       </c>
       <c r="H10" t="n">
-        <v>20.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>20.13</v>
+        <v>8.26</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.11</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.22</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>18.49</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="n">
-        <v>19.9</v>
+        <v>2.31</v>
       </c>
       <c r="E11" t="n">
-        <v>11.24</v>
+        <v>4.06</v>
       </c>
       <c r="F11" t="n">
-        <v>27.39</v>
+        <v>10.49</v>
       </c>
       <c r="G11" t="n">
-        <v>10.77</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>20.37</v>
+        <v>9.01</v>
       </c>
       <c r="I11" t="n">
-        <v>21.54</v>
+        <v>8.99</v>
       </c>
       <c r="J11" t="n">
-        <v>13.11</v>
+        <v>0.73</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08156375324652501</v>
+        <v>-5.036178293999191</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6314983758929095</v>
+        <v>-5.036043400745292</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1916406699562621</v>
+        <v>-1.336183036263556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2571748377395566</v>
+        <v>-1.335930402863873</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2486575370826424</v>
+        <v>-0.6365123816398509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.371081907317324</v>
+        <v>-0.636341353559518</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1951749753611482</v>
+        <v>-1.869510843091702</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01402327158262004</v>
+        <v>-1.869049473254988</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1889804282282079</v>
+        <v>-6.42015403531392</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6101326767036643</v>
+        <v>-6.420065362663609</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2318861650242398</v>
+        <v>-1.721311471309849</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0340200653328818</v>
+        <v>-1.721209681796716</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1798448972471208</v>
+        <v>-5.374180235887764</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1483090648682595</v>
+        <v>-5.374271048085821</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2733597639565432</v>
+        <v>-5.355473922920618</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0514158414489248</v>
+        <v>-5.356015306848913</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2067512527759927</v>
+        <v>0.4820959834359367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6585147201119024</v>
+        <v>0.4822597665058284</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5961774311142133</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2549107017895337</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.28</v>
+        <v>23.64</v>
       </c>
       <c r="D2" t="n">
-        <v>21.85</v>
+        <v>26.04</v>
       </c>
       <c r="E2" t="n">
-        <v>15.36</v>
+        <v>17.62</v>
       </c>
       <c r="F2" t="n">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="G2" t="n">
-        <v>17.7</v>
+        <v>21.69</v>
       </c>
       <c r="H2" t="n">
-        <v>8.75</v>
+        <v>13.18</v>
       </c>
       <c r="I2" t="n">
-        <v>7.89</v>
+        <v>15.6</v>
       </c>
       <c r="J2" t="n">
-        <v>29.09</v>
+        <v>22.05</v>
       </c>
       <c r="K2" t="n">
-        <v>26.9</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.28</v>
+        <v>23.64</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="E3" t="n">
-        <v>4.95</v>
+        <v>8.01</v>
       </c>
       <c r="F3" t="n">
-        <v>21.91</v>
+        <v>22.13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.32</v>
+        <v>3.91</v>
       </c>
       <c r="H3" t="n">
-        <v>11.53</v>
+        <v>12.17</v>
       </c>
       <c r="I3" t="n">
-        <v>13.2</v>
+        <v>11.68</v>
       </c>
       <c r="J3" t="n">
-        <v>9.84</v>
+        <v>20.52</v>
       </c>
       <c r="K3" t="n">
-        <v>6.73</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.85</v>
+        <v>26.04</v>
       </c>
       <c r="C4" t="n">
-        <v>1.93</v>
+        <v>2.57</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.51</v>
+        <v>9.68</v>
       </c>
       <c r="F4" t="n">
-        <v>23.38</v>
+        <v>24.65</v>
       </c>
       <c r="G4" t="n">
-        <v>4.88</v>
+        <v>5.12</v>
       </c>
       <c r="H4" t="n">
-        <v>13.12</v>
+        <v>14.74</v>
       </c>
       <c r="I4" t="n">
-        <v>14.53</v>
+        <v>14.19</v>
       </c>
       <c r="J4" t="n">
-        <v>9.33</v>
+        <v>21.07</v>
       </c>
       <c r="K4" t="n">
-        <v>5.05</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.36</v>
+        <v>17.62</v>
       </c>
       <c r="C5" t="n">
-        <v>4.95</v>
+        <v>8.01</v>
       </c>
       <c r="D5" t="n">
-        <v>6.51</v>
+        <v>9.68</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.96</v>
+        <v>17.36</v>
       </c>
       <c r="G5" t="n">
-        <v>3.47</v>
+        <v>4.61</v>
       </c>
       <c r="H5" t="n">
-        <v>6.61</v>
+        <v>10.22</v>
       </c>
       <c r="I5" t="n">
-        <v>8.32</v>
+        <v>11.61</v>
       </c>
       <c r="J5" t="n">
-        <v>14.42</v>
+        <v>13.69</v>
       </c>
       <c r="K5" t="n">
-        <v>11.55</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="C6" t="n">
-        <v>21.91</v>
+        <v>22.13</v>
       </c>
       <c r="D6" t="n">
-        <v>23.38</v>
+        <v>24.65</v>
       </c>
       <c r="E6" t="n">
-        <v>16.96</v>
+        <v>17.36</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>19.01</v>
+        <v>20.85</v>
       </c>
       <c r="H6" t="n">
-        <v>10.46</v>
+        <v>10.51</v>
       </c>
       <c r="I6" t="n">
-        <v>8.99</v>
+        <v>12.52</v>
       </c>
       <c r="J6" t="n">
-        <v>30.98</v>
+        <v>24.4</v>
       </c>
       <c r="K6" t="n">
-        <v>28.42</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7</v>
+        <v>21.69</v>
       </c>
       <c r="C7" t="n">
-        <v>4.32</v>
+        <v>3.91</v>
       </c>
       <c r="D7" t="n">
-        <v>4.88</v>
+        <v>5.12</v>
       </c>
       <c r="E7" t="n">
-        <v>3.47</v>
+        <v>4.61</v>
       </c>
       <c r="F7" t="n">
-        <v>19.01</v>
+        <v>20.85</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.23</v>
+        <v>11.98</v>
       </c>
       <c r="I7" t="n">
-        <v>10.03</v>
+        <v>12.38</v>
       </c>
       <c r="J7" t="n">
-        <v>14.04</v>
+        <v>16.62</v>
       </c>
       <c r="K7" t="n">
-        <v>9.630000000000001</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.75</v>
+        <v>13.18</v>
       </c>
       <c r="C8" t="n">
-        <v>11.53</v>
+        <v>12.17</v>
       </c>
       <c r="D8" t="n">
-        <v>13.12</v>
+        <v>14.74</v>
       </c>
       <c r="E8" t="n">
-        <v>6.61</v>
+        <v>10.22</v>
       </c>
       <c r="F8" t="n">
-        <v>10.46</v>
+        <v>10.51</v>
       </c>
       <c r="G8" t="n">
-        <v>9.23</v>
+        <v>11.98</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
-        <v>20.54</v>
+        <v>22.25</v>
       </c>
       <c r="K8" t="n">
-        <v>18.16</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.89</v>
+        <v>15.6</v>
       </c>
       <c r="C9" t="n">
-        <v>13.2</v>
+        <v>11.68</v>
       </c>
       <c r="D9" t="n">
-        <v>14.53</v>
+        <v>14.19</v>
       </c>
       <c r="E9" t="n">
-        <v>8.32</v>
+        <v>11.61</v>
       </c>
       <c r="F9" t="n">
-        <v>8.99</v>
+        <v>12.52</v>
       </c>
       <c r="G9" t="n">
-        <v>10.03</v>
+        <v>12.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>22.7</v>
+        <v>24.39</v>
       </c>
       <c r="K9" t="n">
-        <v>19.53</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.09</v>
+        <v>22.05</v>
       </c>
       <c r="C10" t="n">
-        <v>9.84</v>
+        <v>20.52</v>
       </c>
       <c r="D10" t="n">
-        <v>9.33</v>
+        <v>21.07</v>
       </c>
       <c r="E10" t="n">
-        <v>14.42</v>
+        <v>13.69</v>
       </c>
       <c r="F10" t="n">
-        <v>30.98</v>
+        <v>24.4</v>
       </c>
       <c r="G10" t="n">
-        <v>14.04</v>
+        <v>16.62</v>
       </c>
       <c r="H10" t="n">
-        <v>20.54</v>
+        <v>22.25</v>
       </c>
       <c r="I10" t="n">
-        <v>22.7</v>
+        <v>24.39</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.87</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.9</v>
+        <v>23.59</v>
       </c>
       <c r="C11" t="n">
-        <v>6.73</v>
+        <v>13.6</v>
       </c>
       <c r="D11" t="n">
-        <v>5.05</v>
+        <v>13.63</v>
       </c>
       <c r="E11" t="n">
-        <v>11.55</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>28.42</v>
+        <v>24.59</v>
       </c>
       <c r="G11" t="n">
-        <v>9.630000000000001</v>
+        <v>9.93</v>
       </c>
       <c r="H11" t="n">
-        <v>18.16</v>
+        <v>19.04</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53</v>
+        <v>20.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.87</v>
+        <v>7.98</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-14.51204177822686</v>
+        <v>-4.495910409660814</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.39830946079297</v>
+        <v>-14.44451893050634</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.28684437044592</v>
+        <v>-1.162335059148622</v>
       </c>
       <c r="C3" t="n">
-        <v>1.311445180819904</v>
+        <v>8.962951076177962</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.213615866585098</v>
+        <v>0.1126111425052443</v>
       </c>
       <c r="C4" t="n">
-        <v>1.375467174324221</v>
+        <v>11.18880553320636</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.284995272435774</v>
+        <v>2.381179901825055</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.109288154613488</v>
+        <v>1.775875171778596</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.61053951378979</v>
+        <v>-8.139601568218406</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.76186997402971</v>
+        <v>-12.03484047503257</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.064802025288129</v>
+        <v>1.729364270161678</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.003197863934089</v>
+        <v>6.335763971368447</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.695015582236086</v>
+        <v>-7.27618884980753</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.912746711524532</v>
+        <v>-1.565281097381375</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.017160784458737</v>
+        <v>-9.15677297054869</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.947917590286346</v>
+        <v>0.4452989669596101</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.513559441027822</v>
+        <v>14.85098491957107</v>
       </c>
       <c r="C10" t="n">
-        <v>10.61060999986891</v>
+        <v>-3.866436209382775</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.306836021576463</v>
+        <v>11.15666862332101</v>
       </c>
       <c r="C11" t="n">
-        <v>4.328839150253847</v>
+        <v>3.202381992812097</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001599788665771484</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001554489135742188</v>
+        <v>17.84</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2969512939453125</v>
+        <v>22.01</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9242944717407227</v>
+        <v>19.93</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09222245216369629</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07552766799926758</v>
+        <v>19.46</v>
       </c>
       <c r="H2" t="n">
-        <v>1.204632997512817</v>
+        <v>10.19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.3052423608194597</v>
       </c>
       <c r="C2" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6664044059795435</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.524222222222222</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2322616632722571</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001599788665771484</v>
+        <v>0.592307453513175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.265755208478764</v>
       </c>
       <c r="C3" t="n">
-        <v>7.934999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.624311565696302</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.267777777777778</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1472013126263823</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001554489135742188</v>
+        <v>0.08253425168289437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.4588856502489473</v>
       </c>
       <c r="C4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4378109452736321</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.851999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1678281143638942</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2969512939453125</v>
+        <v>0.02973077728227039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.04591440141212387</v>
       </c>
       <c r="C5" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9850746268656716</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.37133333333333</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7171533645771697</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2954545454545455</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9242944717407227</v>
+        <v>-0.2293253604288816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.1118758705035911</v>
       </c>
       <c r="C6" t="n">
-        <v>6.060000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.511494252873563</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1497637301132489</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.09222245216369629</v>
+        <v>0.5686486908582385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.04083675050916041</v>
       </c>
       <c r="C7" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.814885496183206</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.730666666666667</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3189408442026663</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07552766799926758</v>
+        <v>-0.172905663012877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.2451855234827212</v>
       </c>
       <c r="C8" t="n">
-        <v>11.49</v>
+        <v>0.1581799591593541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4231946803426174</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02263627782717769</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04844946818498214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6534983832712342</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.4478064222900597</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4349701191788717</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.09</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6529209621993127</v>
+        <v>14.05</v>
       </c>
       <c r="E8" t="n">
-        <v>3.591333333333333</v>
+        <v>7.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2419393972478652</v>
+        <v>11.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02272727272727273</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.204632997512817</v>
+        <v>2.91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-15.83564625672317</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.711473754659082</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.717566296181115</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.341327811553489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.891675988212842</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.655783552932366</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.467654412607434</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5687770410476346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-15.44151311048725</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-12.34644781193874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.236917898965494</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.528121993536704</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-6.55341308222798</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.724052892293122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-6.926110657776465</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.612660272562726</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.428926322487062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.0810103473925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.5310578081194</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.907588233011419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="K6" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.5045983034824163</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2053011026060263</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2732676200911416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.261928136588468</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3288943932550936</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2232807828127455</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1710320227715303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05182760723050159</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5172034105779468</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.0194816831247944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2909644421826523</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1887837280855064</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2315477171784407</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2781395089189233</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1939628663062583</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3216194359305927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1007946226949109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6340906419806431</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2823591965490329</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4667057718549205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30.53117680038317</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.581788324885798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-14.36930375275746</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.486896885633387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-17.10625883968557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.386306128663263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-10.33663252110468</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.001496348138546</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30.61887665551907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.9246067996408538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-16.66384182657841</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.411962932018042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.851448342446016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.83553498735687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.18107060693362</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.38475261781791</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-5.849053913341194</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.25345467231968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-14.85748155181454</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.59631370206341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002608299255371094</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002622604370117188</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002655982971191406</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.106660604476929</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.569606304168701</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2612934112548828</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.2655348777771</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.889816761016846</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0138089656829834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009582042694091797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.73</v>
+        <v>17.46</v>
       </c>
       <c r="D2" t="n">
-        <v>20.52</v>
+        <v>18.3</v>
       </c>
       <c r="E2" t="n">
-        <v>15.02</v>
+        <v>17.71</v>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>22.07</v>
+        <v>13.65</v>
       </c>
       <c r="H2" t="n">
-        <v>10.1</v>
+        <v>12.52</v>
       </c>
       <c r="I2" t="n">
-        <v>21.18</v>
+        <v>11.74</v>
       </c>
       <c r="J2" t="n">
-        <v>18.94</v>
+        <v>27.25</v>
       </c>
       <c r="K2" t="n">
-        <v>22.03</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.9</v>
+        <v>17.46</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>2.13</v>
       </c>
       <c r="E3" t="n">
-        <v>7.01</v>
+        <v>5.79</v>
       </c>
       <c r="F3" t="n">
-        <v>22.1</v>
+        <v>19.35</v>
       </c>
       <c r="G3" t="n">
-        <v>5.16</v>
+        <v>3.86</v>
       </c>
       <c r="H3" t="n">
-        <v>9.710000000000001</v>
+        <v>12.62</v>
       </c>
       <c r="I3" t="n">
-        <v>12.36</v>
+        <v>15.3</v>
       </c>
       <c r="J3" t="n">
-        <v>13.74</v>
+        <v>17.07</v>
       </c>
       <c r="K3" t="n">
-        <v>9.140000000000001</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.6</v>
+        <v>18.3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.78</v>
+        <v>2.13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.2</v>
+        <v>7.88</v>
       </c>
       <c r="F4" t="n">
-        <v>28.7</v>
+        <v>20.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4.95</v>
+        <v>5.22</v>
       </c>
       <c r="H4" t="n">
-        <v>17.7</v>
+        <v>14.59</v>
       </c>
       <c r="I4" t="n">
-        <v>15.21</v>
+        <v>17.2</v>
       </c>
       <c r="J4" t="n">
-        <v>16.77</v>
+        <v>18.86</v>
       </c>
       <c r="K4" t="n">
-        <v>11.91</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.53</v>
+        <v>17.71</v>
       </c>
       <c r="C5" t="n">
-        <v>13.92</v>
+        <v>5.79</v>
       </c>
       <c r="D5" t="n">
-        <v>9.23</v>
+        <v>7.88</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.74</v>
+        <v>19.18</v>
       </c>
       <c r="G5" t="n">
-        <v>4.97</v>
+        <v>6.06</v>
       </c>
       <c r="H5" t="n">
-        <v>12.48</v>
+        <v>8.74</v>
       </c>
       <c r="I5" t="n">
-        <v>12.27</v>
+        <v>11.63</v>
       </c>
       <c r="J5" t="n">
-        <v>19.13</v>
+        <v>11.86</v>
       </c>
       <c r="K5" t="n">
-        <v>6.77</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="C6" t="n">
-        <v>16.61</v>
+        <v>19.35</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55</v>
+        <v>20.3</v>
       </c>
       <c r="E6" t="n">
-        <v>18.82</v>
+        <v>19.18</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.45</v>
+        <v>15.51</v>
       </c>
       <c r="H6" t="n">
-        <v>13.19</v>
+        <v>13.17</v>
       </c>
       <c r="I6" t="n">
-        <v>11.77</v>
+        <v>11.92</v>
       </c>
       <c r="J6" t="n">
-        <v>37.67</v>
+        <v>28.12</v>
       </c>
       <c r="K6" t="n">
-        <v>23.29</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.64</v>
+        <v>13.65</v>
       </c>
       <c r="C7" t="n">
-        <v>4.84</v>
+        <v>3.86</v>
       </c>
       <c r="D7" t="n">
-        <v>5.29</v>
+        <v>5.22</v>
       </c>
       <c r="E7" t="n">
-        <v>4.89</v>
+        <v>6.06</v>
       </c>
       <c r="F7" t="n">
-        <v>19.88</v>
+        <v>15.51</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.04</v>
+        <v>9.85</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>12.25</v>
       </c>
       <c r="J7" t="n">
-        <v>21.95</v>
+        <v>17.89</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.93</v>
+        <v>12.52</v>
       </c>
       <c r="C8" t="n">
-        <v>21.93</v>
+        <v>12.62</v>
       </c>
       <c r="D8" t="n">
-        <v>15.21</v>
+        <v>14.59</v>
       </c>
       <c r="E8" t="n">
-        <v>5.53</v>
+        <v>8.74</v>
       </c>
       <c r="F8" t="n">
-        <v>16.53</v>
+        <v>13.17</v>
       </c>
       <c r="G8" t="n">
-        <v>8.52</v>
+        <v>9.85</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="J8" t="n">
-        <v>25.1</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>20.16</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.11</v>
+        <v>11.74</v>
       </c>
       <c r="C9" t="n">
-        <v>10.37</v>
+        <v>15.3</v>
       </c>
       <c r="D9" t="n">
-        <v>18.23</v>
+        <v>17.2</v>
       </c>
       <c r="E9" t="n">
-        <v>13.27</v>
+        <v>11.63</v>
       </c>
       <c r="F9" t="n">
-        <v>8.529999999999999</v>
+        <v>11.92</v>
       </c>
       <c r="G9" t="n">
-        <v>13.09</v>
+        <v>12.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.89</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.52</v>
+        <v>16.95</v>
       </c>
       <c r="K9" t="n">
-        <v>29.86</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.51</v>
+        <v>27.25</v>
       </c>
       <c r="C10" t="n">
-        <v>31.37</v>
+        <v>17.07</v>
       </c>
       <c r="D10" t="n">
-        <v>30.31</v>
+        <v>18.86</v>
       </c>
       <c r="E10" t="n">
-        <v>12.4</v>
+        <v>11.86</v>
       </c>
       <c r="F10" t="n">
-        <v>22.39</v>
+        <v>28.12</v>
       </c>
       <c r="G10" t="n">
-        <v>10.32</v>
+        <v>17.89</v>
       </c>
       <c r="H10" t="n">
-        <v>18.43</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>20.39</v>
+        <v>16.95</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>12.69</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.05</v>
+        <v>24.95</v>
       </c>
       <c r="C11" t="n">
-        <v>15.12</v>
+        <v>10.46</v>
       </c>
       <c r="D11" t="n">
-        <v>18.79</v>
+        <v>11.81</v>
       </c>
       <c r="E11" t="n">
-        <v>5.98</v>
+        <v>7.25</v>
       </c>
       <c r="F11" t="n">
-        <v>21.36</v>
+        <v>26.37</v>
       </c>
       <c r="G11" t="n">
-        <v>9.5</v>
+        <v>12.67</v>
       </c>
       <c r="H11" t="n">
-        <v>20.4</v>
+        <v>14.77</v>
       </c>
       <c r="I11" t="n">
-        <v>16.65</v>
+        <v>17.51</v>
       </c>
       <c r="J11" t="n">
-        <v>6.19</v>
+        <v>8.15</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.07632079970823</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.717122046434213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1762721899673369</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.49610010753211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.021119534638785</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.55718710112551</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.375531245554508</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.847540457470156</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.278870296072561</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.743943661058089</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2709478464126666</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.638295399338517</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.280464029994673</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.314740864634047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.883320184675</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.509497732304078</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.8367112318357</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.8829366202849</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.289120325439786</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.9480894040833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6664044059795435</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.524222222222222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2322616632722571</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001599788665771484</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7.934999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.624311565696302</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.267777777777778</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1472013126263823</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001554489135742188</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4378109452736321</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.851999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1678281143638942</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2969512939453125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9850746268656716</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.37133333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7171533645771697</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2954545454545455</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9242944717407227</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.060000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.511494252873563</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1497637301132489</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09222245216369629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.814885496183206</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.730666666666667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3189408442026663</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07552766799926758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6529209621993127</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.591333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2419393972478652</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.204632997512817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.315</v>
+        <v>22.73</v>
       </c>
       <c r="D2" t="n">
-        <v>24.06</v>
+        <v>20.52</v>
       </c>
       <c r="E2" t="n">
-        <v>18.275</v>
+        <v>15.02</v>
       </c>
       <c r="F2" t="n">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>22.355</v>
+        <v>22.07</v>
       </c>
       <c r="H2" t="n">
-        <v>12.015</v>
+        <v>10.1</v>
       </c>
       <c r="I2" t="n">
-        <v>20.645</v>
+        <v>21.18</v>
       </c>
       <c r="J2" t="n">
-        <v>20.725</v>
+        <v>18.94</v>
       </c>
       <c r="K2" t="n">
-        <v>25.04</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.315</v>
+        <v>21.9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.075</v>
+        <v>1.37</v>
       </c>
       <c r="E3" t="n">
-        <v>10.465</v>
+        <v>7.01</v>
       </c>
       <c r="F3" t="n">
-        <v>19.355</v>
+        <v>22.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>5.16</v>
       </c>
       <c r="H3" t="n">
-        <v>15.82</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>11.365</v>
+        <v>12.36</v>
       </c>
       <c r="J3" t="n">
-        <v>22.555</v>
+        <v>13.74</v>
       </c>
       <c r="K3" t="n">
-        <v>12.13</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.06</v>
+        <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>2.075</v>
+        <v>2.78</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.715</v>
+        <v>6.2</v>
       </c>
       <c r="F4" t="n">
-        <v>24.625</v>
+        <v>28.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.12</v>
+        <v>4.95</v>
       </c>
       <c r="H4" t="n">
-        <v>16.455</v>
+        <v>17.7</v>
       </c>
       <c r="I4" t="n">
-        <v>16.72</v>
+        <v>15.21</v>
       </c>
       <c r="J4" t="n">
-        <v>23.54</v>
+        <v>16.77</v>
       </c>
       <c r="K4" t="n">
-        <v>15.35</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.275</v>
+        <v>21.53</v>
       </c>
       <c r="C5" t="n">
-        <v>10.465</v>
+        <v>13.92</v>
       </c>
       <c r="D5" t="n">
-        <v>7.715</v>
+        <v>9.23</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.28</v>
+        <v>13.74</v>
       </c>
       <c r="G5" t="n">
-        <v>4.93</v>
+        <v>4.97</v>
       </c>
       <c r="H5" t="n">
-        <v>9.005000000000001</v>
+        <v>12.48</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77</v>
+        <v>12.27</v>
       </c>
       <c r="J5" t="n">
-        <v>15.765</v>
+        <v>19.13</v>
       </c>
       <c r="K5" t="n">
-        <v>6.375</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>19.355</v>
+        <v>16.61</v>
       </c>
       <c r="D6" t="n">
-        <v>24.625</v>
+        <v>20.55</v>
       </c>
       <c r="E6" t="n">
-        <v>16.28</v>
+        <v>18.82</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.165</v>
+        <v>24.45</v>
       </c>
       <c r="H6" t="n">
-        <v>14.86</v>
+        <v>13.19</v>
       </c>
       <c r="I6" t="n">
-        <v>10.15</v>
+        <v>11.77</v>
       </c>
       <c r="J6" t="n">
-        <v>30.03</v>
+        <v>37.67</v>
       </c>
       <c r="K6" t="n">
-        <v>22.325</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.355</v>
+        <v>22.64</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4.84</v>
       </c>
       <c r="D7" t="n">
-        <v>5.12</v>
+        <v>5.29</v>
       </c>
       <c r="E7" t="n">
-        <v>4.93</v>
+        <v>4.89</v>
       </c>
       <c r="F7" t="n">
-        <v>22.165</v>
+        <v>19.88</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.28</v>
+        <v>16.04</v>
       </c>
       <c r="I7" t="n">
-        <v>11.295</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>16.135</v>
+        <v>21.95</v>
       </c>
       <c r="K7" t="n">
-        <v>11.675</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.015</v>
+        <v>13.93</v>
       </c>
       <c r="C8" t="n">
-        <v>15.82</v>
+        <v>21.93</v>
       </c>
       <c r="D8" t="n">
-        <v>16.455</v>
+        <v>15.21</v>
       </c>
       <c r="E8" t="n">
-        <v>9.005000000000001</v>
+        <v>5.53</v>
       </c>
       <c r="F8" t="n">
-        <v>14.86</v>
+        <v>16.53</v>
       </c>
       <c r="G8" t="n">
-        <v>12.28</v>
+        <v>8.52</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.585</v>
+        <v>2.97</v>
       </c>
       <c r="J8" t="n">
-        <v>21.765</v>
+        <v>25.1</v>
       </c>
       <c r="K8" t="n">
-        <v>20.28</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.645</v>
+        <v>20.11</v>
       </c>
       <c r="C9" t="n">
-        <v>11.365</v>
+        <v>10.37</v>
       </c>
       <c r="D9" t="n">
-        <v>16.72</v>
+        <v>18.23</v>
       </c>
       <c r="E9" t="n">
-        <v>12.77</v>
+        <v>13.27</v>
       </c>
       <c r="F9" t="n">
-        <v>10.15</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>11.295</v>
+        <v>13.09</v>
       </c>
       <c r="H9" t="n">
-        <v>2.585</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.955</v>
+        <v>19.52</v>
       </c>
       <c r="K9" t="n">
-        <v>23.255</v>
+        <v>29.86</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.725</v>
+        <v>22.51</v>
       </c>
       <c r="C10" t="n">
-        <v>22.555</v>
+        <v>31.37</v>
       </c>
       <c r="D10" t="n">
-        <v>23.54</v>
+        <v>30.31</v>
       </c>
       <c r="E10" t="n">
-        <v>15.765</v>
+        <v>12.4</v>
       </c>
       <c r="F10" t="n">
-        <v>30.03</v>
+        <v>22.39</v>
       </c>
       <c r="G10" t="n">
-        <v>16.135</v>
+        <v>10.32</v>
       </c>
       <c r="H10" t="n">
-        <v>21.765</v>
+        <v>18.43</v>
       </c>
       <c r="I10" t="n">
-        <v>19.955</v>
+        <v>20.39</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.44</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.04</v>
+        <v>28.05</v>
       </c>
       <c r="C11" t="n">
-        <v>12.13</v>
+        <v>15.12</v>
       </c>
       <c r="D11" t="n">
-        <v>15.35</v>
+        <v>18.79</v>
       </c>
       <c r="E11" t="n">
-        <v>6.375</v>
+        <v>5.98</v>
       </c>
       <c r="F11" t="n">
-        <v>22.325</v>
+        <v>21.36</v>
       </c>
       <c r="G11" t="n">
-        <v>11.675</v>
+        <v>9.5</v>
       </c>
       <c r="H11" t="n">
-        <v>20.28</v>
+        <v>20.4</v>
       </c>
       <c r="I11" t="n">
-        <v>23.255</v>
+        <v>16.65</v>
       </c>
       <c r="J11" t="n">
-        <v>9.44</v>
+        <v>6.19</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>26.37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.67</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="F8" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14.77</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17.51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="D10" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F10" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>26.37</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-3.07632079970823</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.717122046434213</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.1762721899673369</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.49610010753211</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.021119534638785</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.55718710112551</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.375531245554508</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.847540457470156</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-2.278870296072561</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-7.743943661058089</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.2709478464126666</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.638295399338517</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.280464029994673</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.314740864634047</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.883320184675</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.509497732304078</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16.8367112318357</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.8829366202849</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9.289120325439786</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15.9480894040833</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.23</v>
+        <v>22.31</v>
       </c>
       <c r="D2" t="n">
-        <v>6.22</v>
+        <v>23.8</v>
       </c>
       <c r="E2" t="n">
-        <v>4.48</v>
+        <v>17.98</v>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="G2" t="n">
-        <v>4.69</v>
+        <v>22.35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.48</v>
+        <v>11.86</v>
       </c>
       <c r="I2" t="n">
-        <v>0.45</v>
+        <v>20.64</v>
       </c>
       <c r="J2" t="n">
-        <v>7.8</v>
+        <v>20.65</v>
       </c>
       <c r="K2" t="n">
-        <v>8.539999999999999</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.23</v>
+        <v>22.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>1.95</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>7.19</v>
+        <v>19.16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5.71</v>
+        <v>14.59</v>
       </c>
       <c r="I3" t="n">
-        <v>5.68</v>
+        <v>11.32</v>
       </c>
       <c r="J3" t="n">
-        <v>2.57</v>
+        <v>20.76</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.22</v>
+        <v>23.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1.95</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.74</v>
+        <v>7.56</v>
       </c>
       <c r="F4" t="n">
-        <v>8.18</v>
+        <v>24.28</v>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>5.12</v>
       </c>
       <c r="H4" t="n">
-        <v>6.7</v>
+        <v>16.41</v>
       </c>
       <c r="I4" t="n">
-        <v>6.67</v>
+        <v>16.65</v>
       </c>
       <c r="J4" t="n">
-        <v>1.58</v>
+        <v>22.55</v>
       </c>
       <c r="K4" t="n">
-        <v>2.31</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.48</v>
+        <v>17.98</v>
       </c>
       <c r="C5" t="n">
-        <v>0.75</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>1.74</v>
+        <v>7.56</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.44</v>
+        <v>16.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>4.93</v>
       </c>
       <c r="H5" t="n">
-        <v>4.96</v>
+        <v>8.31</v>
       </c>
       <c r="I5" t="n">
-        <v>4.93</v>
+        <v>12.76</v>
       </c>
       <c r="J5" t="n">
-        <v>3.33</v>
+        <v>15.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.06</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="C6" t="n">
-        <v>7.19</v>
+        <v>19.16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.18</v>
+        <v>24.28</v>
       </c>
       <c r="E6" t="n">
-        <v>6.44</v>
+        <v>16.08</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.65</v>
+        <v>22.04</v>
       </c>
       <c r="H6" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>10.02</v>
       </c>
       <c r="J6" t="n">
-        <v>9.76</v>
+        <v>29.04</v>
       </c>
       <c r="K6" t="n">
-        <v>10.49</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.69</v>
+        <v>22.35</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.53</v>
+        <v>5.12</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21</v>
+        <v>4.93</v>
       </c>
       <c r="F7" t="n">
-        <v>6.65</v>
+        <v>22.04</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.17</v>
+        <v>11.69</v>
       </c>
       <c r="I7" t="n">
-        <v>5.14</v>
+        <v>11.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.12</v>
+        <v>15.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.48</v>
+        <v>11.86</v>
       </c>
       <c r="C8" t="n">
-        <v>5.71</v>
+        <v>14.59</v>
       </c>
       <c r="D8" t="n">
-        <v>6.7</v>
+        <v>16.41</v>
       </c>
       <c r="E8" t="n">
-        <v>4.96</v>
+        <v>8.31</v>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>14.77</v>
       </c>
       <c r="G8" t="n">
-        <v>5.17</v>
+        <v>11.69</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03</v>
+        <v>2.56</v>
       </c>
       <c r="J8" t="n">
-        <v>8.279999999999999</v>
+        <v>21.51</v>
       </c>
       <c r="K8" t="n">
-        <v>9.01</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.45</v>
+        <v>20.64</v>
       </c>
       <c r="C9" t="n">
-        <v>5.68</v>
+        <v>11.32</v>
       </c>
       <c r="D9" t="n">
-        <v>6.67</v>
+        <v>16.65</v>
       </c>
       <c r="E9" t="n">
-        <v>4.93</v>
+        <v>12.76</v>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>10.02</v>
       </c>
       <c r="G9" t="n">
-        <v>5.14</v>
+        <v>11.15</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.26</v>
+        <v>19.95</v>
       </c>
       <c r="K9" t="n">
-        <v>8.99</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.8</v>
+        <v>20.65</v>
       </c>
       <c r="C10" t="n">
-        <v>2.57</v>
+        <v>20.76</v>
       </c>
       <c r="D10" t="n">
-        <v>1.58</v>
+        <v>22.55</v>
       </c>
       <c r="E10" t="n">
-        <v>3.33</v>
+        <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>9.76</v>
+        <v>29.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.12</v>
+        <v>15.05</v>
       </c>
       <c r="H10" t="n">
-        <v>8.279999999999999</v>
+        <v>21.51</v>
       </c>
       <c r="I10" t="n">
-        <v>8.26</v>
+        <v>19.95</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.73</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.539999999999999</v>
+        <v>24.86</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3</v>
+        <v>11.75</v>
       </c>
       <c r="D11" t="n">
-        <v>2.31</v>
+        <v>14.96</v>
       </c>
       <c r="E11" t="n">
-        <v>4.06</v>
+        <v>6.37</v>
       </c>
       <c r="F11" t="n">
-        <v>10.49</v>
+        <v>22.31</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>11.47</v>
       </c>
       <c r="H11" t="n">
-        <v>9.01</v>
+        <v>20.28</v>
       </c>
       <c r="I11" t="n">
-        <v>8.99</v>
+        <v>22.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0.73</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
